--- a/Spraw6/lab6.xlsx
+++ b/Spraw6/lab6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689B2605-5AF8-44BF-B0BE-635B783559C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC17A84-87B5-4149-837B-0FC8B22E035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>U[V]</t>
   </si>
   <si>
-    <t>deltaL</t>
+    <t>deltaL[mm]</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A3:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,10 +389,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
@@ -409,132 +409,162 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>0.52</v>
+      </c>
+      <c r="E5">
+        <v>1.9</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B6">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>38.5</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B7">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>45.3</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B8">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>51.5</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B9">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B10">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B11">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B12">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B13">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B14">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="B15">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30">
         <v>27</v>
       </c>
     </row>

--- a/Spraw6/lab6.xlsx
+++ b/Spraw6/lab6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC17A84-87B5-4149-837B-0FC8B22E035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE2B826-358C-4B7B-A37D-EF8683DFDC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +57,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,14 +87,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,31 +391,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F30"/>
+  <dimension ref="A3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -392,180 +428,190 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>33</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.52</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1.9</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>38.5</v>
       </c>
-      <c r="F6">
+      <c r="D6" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>45.3</v>
       </c>
-      <c r="F7">
+      <c r="D7" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>51.5</v>
       </c>
-      <c r="F8">
+      <c r="D8" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F8" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
+      <c r="C9" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
+      <c r="C10" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
+      <c r="C11" s="1">
+        <v>75.7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
+      <c r="C12" s="1">
+        <v>95.6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
+      <c r="C13" s="1">
+        <v>116</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>149</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14">
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>27</v>
+      <c r="C14" s="1">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Spraw6/lab6.xlsx
+++ b/Spraw6/lab6.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE2B826-358C-4B7B-A37D-EF8683DFDC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C6BC73-3006-49EC-A6C9-6F6001DD94F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Temperatura:</t>
   </si>
@@ -43,6 +49,9 @@
   </si>
   <si>
     <t>deltaL[mm]</t>
+  </si>
+  <si>
+    <t>L0</t>
   </si>
 </sst>
 </file>
@@ -126,6 +135,1466 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17957154262820973"/>
+          <c:y val="0.1388888888888889"/>
+          <c:w val="0.75837815355047833"/>
+          <c:h val="0.76331790833838076"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$16:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117.69999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$J$4:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7142857142857143E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7428571428571427E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000007E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0285714285714278E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4000000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8857142857142863E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3714285714285709E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3028571428571427E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7028571428571429E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0799999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEDC-42DC-91F6-D3D21BC55E33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="422188832"/>
+        <c:axId val="266967904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="422188832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266967904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="266967904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422188832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E81468-31B7-406B-B9C5-F0BAF01DFCD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2257424" cy="266163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="pole tekstowe 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F170AB-6849-4E99-9D31-4B53D18EE2A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8686801" y="2062162"/>
+              <a:ext cx="2257424" cy="266163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>Wykres </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="el-GR" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>Δ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝐿</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>0</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>α</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>Δ</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑇</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="pole tekstowe 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F170AB-6849-4E99-9D31-4B53D18EE2A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8686801" y="2062162"/>
+              <a:ext cx="2257424" cy="266163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>Wykres </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Δ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐿/𝐿_0 =</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>α</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Δ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2164268" cy="177741"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="pole tekstowe 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504989BD-966F-4908-A663-D0D6F3AB2CA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9591676" y="2547937"/>
+              <a:ext cx="2164268" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=1,793∗</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−5</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3,978∗</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−6</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="pole tekstowe 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504989BD-966F-4908-A663-D0D6F3AB2CA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9591676" y="2547937"/>
+              <a:ext cx="2164268" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦=1,793∗〖10〗^(−5)−3,978∗〖10〗^(−6)</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02598</cdr:x>
+      <cdr:y>0.46423</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.10435</cdr:x>
+      <cdr:y>0.57983</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC08897-CDCC-41F2-9C15-EE7454FA4886}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="163275" y="1361517"/>
+          <a:ext cx="346289" cy="404556"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53513</cdr:x>
+      <cdr:y>0.90692</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62842</cdr:x>
+      <cdr:y>0.99751</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="3" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12D99D8-2BC4-4B31-9750-2BBD9A6FCB18}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2798317" y="2807481"/>
+          <a:ext cx="487809" cy="280427"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,23 +1860,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F14"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +1906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -443,8 +1925,23 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>F4/1000/100</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>H4/$H$2</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="array" ref="M4:N5">LINEST(J4:J14,C16:C26,TRUE,TRUE)</f>
+        <v>1.7935028621430597E-5</v>
+      </c>
+      <c r="N4">
+        <v>-3.978419384311426E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -460,8 +1957,22 @@
       <c r="F5" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" ref="H5:H14" si="0">F5/1000/100</f>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J14" si="1">H5/$H$2</f>
+        <v>1.7142857142857143E-4</v>
+      </c>
+      <c r="M5">
+        <v>1.4184087260790826E-7</v>
+      </c>
+      <c r="N5">
+        <v>8.05763188310071E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -477,8 +1988,16 @@
       <c r="F6" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="J6">
+        <f>H6/$H$2</f>
+        <v>2.7428571428571427E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -494,8 +2013,16 @@
       <c r="F7" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="J7">
+        <f>H7/$H$2</f>
+        <v>4.0000000000000007E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -511,8 +2038,16 @@
       <c r="F8" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999996E-4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>5.0285714285714278E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -528,8 +2063,16 @@
       <c r="F9" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000006E-4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -545,8 +2088,16 @@
       <c r="F10" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>6.9000000000000008E-4</v>
+      </c>
+      <c r="J10">
+        <f>H10/$H$2</f>
+        <v>7.8857142857142863E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -562,8 +2113,16 @@
       <c r="F11" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>9.3714285714285709E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -579,8 +2138,16 @@
       <c r="F12" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.14E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.3028571428571427E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -596,8 +2163,16 @@
       <c r="F13" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.49E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1.7028571428571429E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -613,8 +2188,297 @@
       <c r="F14" s="1">
         <v>182</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.82E-3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>2.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>C5-$C$4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" ref="C18:C26" si="2">C6-$C$4</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>22.299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>117.69999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>23</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <f>F4/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>33</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" ref="J32:J41" si="3">F5/100</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="3"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1">
+        <v>75.7</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1">
+        <v>95.6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1">
+        <v>116</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="I40" s="1">
+        <v>7</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="3"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I41" s="1">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="3"/>
+        <v>1.82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Spraw6/lab6.xlsx
+++ b/Spraw6/lab6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C6BC73-3006-49EC-A6C9-6F6001DD94F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FBC14A-D284-49DB-83F5-DC596FCCFD29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9660" yWindow="6945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Temperatura:</t>
   </si>
@@ -53,11 +53,32 @@
   <si>
     <t>L0</t>
   </si>
+  <si>
+    <t>deltaL[m]</t>
+  </si>
+  <si>
+    <t>Niepewnosci:</t>
+  </si>
+  <si>
+    <t>u_B(T)</t>
+  </si>
+  <si>
+    <t>u_B(I)</t>
+  </si>
+  <si>
+    <t>u_B(U)</t>
+  </si>
+  <si>
+    <t>U_c(deltaT)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,9 +137,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
@@ -363,7 +386,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="266967904"/>
@@ -425,7 +448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="422188832"/>
@@ -473,7 +496,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1087,8 +1110,8 @@
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2257424" cy="266163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="pole tekstowe 2">
@@ -1232,7 +1255,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="pole tekstowe 2">
@@ -1330,8 +1353,8 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2164268" cy="177741"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="pole tekstowe 3">
@@ -1373,6 +1396,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1455,7 +1479,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="pole tekstowe 3">
@@ -1860,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1896,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
@@ -2276,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
@@ -2315,7 +2339,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F33" s="1">
         <v>3</v>
       </c>
@@ -2333,7 +2357,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F34" s="1">
         <v>4</v>
       </c>
@@ -2351,7 +2375,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F35" s="1">
         <v>5</v>
       </c>
@@ -2369,7 +2393,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F36" s="1">
         <v>6</v>
       </c>
@@ -2387,7 +2411,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F37" s="1">
         <v>7</v>
       </c>
@@ -2405,7 +2429,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F38" s="1">
         <v>8</v>
       </c>
@@ -2423,7 +2447,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F39" s="1">
         <v>9</v>
       </c>
@@ -2441,7 +2465,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F40" s="1">
         <v>10</v>
       </c>
@@ -2459,7 +2483,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F41" s="1">
         <v>11</v>
       </c>
@@ -2477,8 +2501,213 @@
         <v>1.82</v>
       </c>
     </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <f>((0.5/100)+0.5)/1.73</f>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H43" s="3">
+        <f>((1/100)+0.01)/1.73</f>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I43" s="3">
+        <f>((1/100)+0.01)/1.73</f>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" ref="G44:G53" si="4">((0.5/100)+0.5)/1.73</f>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" ref="H44:I53" si="5">((1/100)+0.01)/1.73</f>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>7</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <v>8</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>9</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F52" s="1">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <v>11</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29190751445086704</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1560693641618498E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Spraw6/lab6.xlsx
+++ b/Spraw6/lab6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FBC14A-D284-49DB-83F5-DC596FCCFD29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E892031-9A8F-4BD4-8CCD-BDC240CDD249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9660" yWindow="6945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Temperatura:</t>
   </si>
@@ -71,13 +73,40 @@
   <si>
     <t>U_c(deltaT)</t>
   </si>
+  <si>
+    <t>delta L/L0</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>u(L)</t>
+  </si>
+  <si>
+    <t>u(L0)=</t>
+  </si>
+  <si>
+    <t>L[m]</t>
+  </si>
+  <si>
+    <t>delta L[m]</t>
+  </si>
+  <si>
+    <t>u(delta L/L0)</t>
+  </si>
+  <si>
+    <t>u(T)=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,11 +166,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
@@ -229,6 +262,129 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.29000000000000004"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$K$4:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>4.5714333446274175E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.5722170172786836E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.5726872208695785E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.5732619141474751E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.5737321177385937E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.5743590558602418E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5750382388255626E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.5757174217910951E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.5773892567840665E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.5792178263090863E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.5809419061483541E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$K$4:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>4.5714333446274175E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.5722170172786836E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.5726872208695785E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.5732619141474751E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.5737321177385937E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.5743590558602418E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5750382388255626E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.5757174217910951E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.5773892567840665E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.5792178263090863E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.5809419061483541E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$C$16:$C$26</c:f>
@@ -275,9 +431,9 @@
             <c:numRef>
               <c:f>Arkusz1!$J$4:$J$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1887,33 +2043,41 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,8 +2093,23 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1949,13 +2128,25 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="5">
+        <f>0.01/1000/1.73</f>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H4" s="1">
         <f>F4/1000/100</f>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="1">
+        <f>$H$2+H4</f>
+        <v>0.875</v>
+      </c>
+      <c r="J4" s="1">
         <f>H4/$H$2</f>
         <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <f>SQRT(((1/$H$2^2)*G4^2)+((I4^2)/($H$2^4))*$F$17^2)</f>
+        <v>4.5714333446274175E-3</v>
       </c>
       <c r="M4">
         <f t="array" ref="M4:N5">LINEST(J4:J14,C16:C26,TRUE,TRUE)</f>
@@ -1965,7 +2156,7 @@
         <v>-3.978419384311426E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1981,13 +2172,25 @@
       <c r="F5" s="1">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="5">
+        <f>0.01/1000/1.73</f>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" ref="H5:H14" si="0">F5/1000/100</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J14" si="1">H5/$H$2</f>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I14" si="1">$H$2+H5</f>
+        <v>0.87514999999999998</v>
+      </c>
+      <c r="J5" s="6">
+        <f>H5/$H$2</f>
         <v>1.7142857142857143E-4</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K14" si="2">SQRT(((1/$H$2^2)*G5^2)+((I5^2)/($H$2^4))*$F$17^2)</f>
+        <v>4.5722170172786836E-3</v>
       </c>
       <c r="M5">
         <v>1.4184087260790826E-7</v>
@@ -1996,7 +2199,7 @@
         <v>8.05763188310071E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2012,16 +2215,28 @@
       <c r="F6" s="1">
         <v>24</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="5">
+        <f t="shared" ref="G6:G14" si="3">0.01/1000/1.73</f>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="J6">
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87524000000000002</v>
+      </c>
+      <c r="J6" s="6">
         <f>H6/$H$2</f>
         <v>2.7428571428571427E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5726872208695785E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -2037,16 +2252,28 @@
       <c r="F7" s="1">
         <v>35</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>3.5000000000000005E-4</v>
       </c>
-      <c r="J7">
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87534999999999996</v>
+      </c>
+      <c r="J7" s="6">
         <f>H7/$H$2</f>
         <v>4.0000000000000007E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5732619141474751E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -2062,16 +2289,28 @@
       <c r="F8" s="1">
         <v>44</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>4.3999999999999996E-4</v>
       </c>
-      <c r="J8">
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
+        <v>0.87544</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" ref="J5:J14" si="4">H8/$H$2</f>
         <v>5.0285714285714278E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5737321177385937E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -2087,16 +2326,28 @@
       <c r="F9" s="1">
         <v>56</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>5.6000000000000006E-4</v>
       </c>
-      <c r="J9">
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
+        <v>0.87556</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="4"/>
         <v>6.4000000000000005E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5743590558602418E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -2112,16 +2363,28 @@
       <c r="F10" s="1">
         <v>69</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>6.9000000000000008E-4</v>
       </c>
-      <c r="J10">
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87568999999999997</v>
+      </c>
+      <c r="J10" s="6">
         <f>H10/$H$2</f>
         <v>7.8857142857142863E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5750382388255626E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -2137,16 +2400,28 @@
       <c r="F11" s="1">
         <v>82</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="J11">
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
+        <v>0.87582000000000004</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="4"/>
         <v>9.3714285714285709E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5757174217910951E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -2162,16 +2437,28 @@
       <c r="F12" s="1">
         <v>114</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>1.14E-3</v>
       </c>
-      <c r="J12">
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
+        <v>0.87614000000000003</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="4"/>
         <v>1.3028571428571427E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5773892567840665E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2187,16 +2474,28 @@
       <c r="F13" s="1">
         <v>149</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>1.49E-3</v>
       </c>
-      <c r="J13">
+      <c r="I13" s="1">
         <f t="shared" si="1"/>
+        <v>0.87648999999999999</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="4"/>
         <v>1.7028571428571429E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K13" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5792178263090863E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -2212,81 +2511,105 @@
       <c r="F14" s="1">
         <v>182</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7803468208092489E-6</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
         <v>1.82E-3</v>
       </c>
-      <c r="J14">
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
+        <v>0.87682000000000004</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="4"/>
         <v>2.0799999999999998E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5809419061483541E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17">
         <f>C5-$C$4</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18">
-        <f t="shared" ref="C18:C26" si="2">C6-$C$4</f>
+        <f t="shared" ref="C18:C26" si="5">C6-$C$4</f>
         <v>15.5</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.299999999999997</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44.5</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>52.7</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>117.69999999999999</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F31" s="1">
         <v>1</v>
       </c>
@@ -2321,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F32" s="1">
         <v>2</v>
       </c>
@@ -2335,11 +2658,11 @@
         <v>1.9</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" ref="J32:J41" si="3">F5/100</f>
+        <f t="shared" ref="J32:J41" si="6">F5/100</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F33" s="1">
         <v>3</v>
       </c>
@@ -2353,11 +2676,11 @@
         <v>2.5</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F34" s="1">
         <v>4</v>
       </c>
@@ -2371,11 +2694,11 @@
         <v>3</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F35" s="1">
         <v>5</v>
       </c>
@@ -2389,11 +2712,11 @@
         <v>3.5</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.44</v>
       </c>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F36" s="1">
         <v>6</v>
       </c>
@@ -2407,11 +2730,11 @@
         <v>4</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F37" s="1">
         <v>7</v>
       </c>
@@ -2425,11 +2748,11 @@
         <v>4.5</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.69</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F38" s="1">
         <v>8</v>
       </c>
@@ -2443,11 +2766,11 @@
         <v>5</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.82</v>
       </c>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F39" s="1">
         <v>9</v>
       </c>
@@ -2461,11 +2784,11 @@
         <v>6</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F40" s="1">
         <v>10</v>
       </c>
@@ -2479,11 +2802,11 @@
         <v>7</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.49</v>
       </c>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F41" s="1">
         <v>11</v>
       </c>
@@ -2497,11 +2820,11 @@
         <v>8</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.82</v>
       </c>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F43" s="1">
         <v>1</v>
       </c>
@@ -2535,173 +2858,173 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F44" s="1">
         <v>2</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" ref="G44:G53" si="4">((0.5/100)+0.5)/1.73</f>
+        <f t="shared" ref="G44:G53" si="7">((0.5/100)+0.5)/1.73</f>
         <v>0.29190751445086704</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" ref="H44:I53" si="5">((1/100)+0.01)/1.73</f>
+        <f t="shared" ref="H44:I53" si="8">((1/100)+0.01)/1.73</f>
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F45" s="1">
         <v>3</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29190751445086704</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F46" s="1">
         <v>4</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29190751445086704</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F47" s="1">
         <v>5</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29190751445086704</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F48" s="1">
         <v>6</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29190751445086704</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F49" s="1">
         <v>7</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29190751445086704</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F50" s="1">
         <v>8</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29190751445086704</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F51" s="1">
         <v>9</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29190751445086704</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F52" s="1">
         <v>10</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29190751445086704</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F53" s="1">
         <v>11</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29190751445086704</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560693641618498E-2</v>
       </c>
     </row>

--- a/Spraw6/lab6.xlsx
+++ b/Spraw6/lab6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E892031-9A8F-4BD4-8CCD-BDC240CDD249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C1B7EF-B36D-4C77-BBB1-5E286863BECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13065" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Temperatura:</t>
   </si>
@@ -97,16 +95,18 @@
   <si>
     <t>u(T)=</t>
   </si>
+  <si>
+    <t>u(deltaL)=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -166,15 +166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
@@ -214,10 +213,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17957154262820973"/>
-          <c:y val="0.1388888888888889"/>
-          <c:w val="0.75837815355047833"/>
-          <c:h val="0.76331790833838076"/>
+          <c:x val="9.1521220224830377E-2"/>
+          <c:y val="8.4123195237144316E-2"/>
+          <c:w val="0.84642846530976079"/>
+          <c:h val="0.81808358615327359"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -294,37 +293,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>4.5714333446274175E-3</c:v>
+                    <c:v>2.2857142857142858E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.5722170172786836E-3</c:v>
+                    <c:v>2.2870573313724758E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.5726872208695785E-3</c:v>
+                    <c:v>2.2891509091905447E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.5732619141474751E-3</c:v>
+                    <c:v>2.2930169058714428E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.5737321177385937E-3</c:v>
+                    <c:v>2.2972447593544554E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.5743590558602418E-3</c:v>
+                    <c:v>2.3043627832298228E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.5750382388255626E-3</c:v>
+                    <c:v>2.3139668729002227E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.5757174217910951E-3</c:v>
+                    <c:v>2.3255157170551916E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.5773892567840665E-3</c:v>
+                    <c:v>2.3620371360127627E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.5792178263090863E-3</c:v>
+                    <c:v>2.4146371590253348E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>4.5809419061483541E-3</c:v>
+                    <c:v>2.4756047952047631E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -336,37 +335,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>4.5714333446274175E-3</c:v>
+                    <c:v>2.2857142857142858E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.5722170172786836E-3</c:v>
+                    <c:v>2.2870573313724758E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.5726872208695785E-3</c:v>
+                    <c:v>2.2891509091905447E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.5732619141474751E-3</c:v>
+                    <c:v>2.2930169058714428E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.5737321177385937E-3</c:v>
+                    <c:v>2.2972447593544554E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.5743590558602418E-3</c:v>
+                    <c:v>2.3043627832298228E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.5750382388255626E-3</c:v>
+                    <c:v>2.3139668729002227E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.5757174217910951E-3</c:v>
+                    <c:v>2.3255157170551916E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.5773892567840665E-3</c:v>
+                    <c:v>2.3620371360127627E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.5792178263090863E-3</c:v>
+                    <c:v>2.4146371590253348E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>4.5809419061483541E-3</c:v>
+                    <c:v>2.4756047952047631E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -431,40 +430,40 @@
             <c:numRef>
               <c:f>Arkusz1!$J$4:$J$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7142857142857143E-4</c:v>
+                  <c:v>1.4999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7428571428571427E-4</c:v>
+                  <c:v>2.4000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0000000000000007E-4</c:v>
+                  <c:v>3.5000000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0285714285714278E-4</c:v>
+                  <c:v>4.3999999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4000000000000005E-4</c:v>
+                  <c:v>5.6000000000000006E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8857142857142863E-4</c:v>
+                  <c:v>6.9000000000000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3714285714285709E-4</c:v>
+                  <c:v>8.1999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3028571428571427E-3</c:v>
+                  <c:v>1.14E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7028571428571429E-3</c:v>
+                  <c:v>1.49E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0799999999999998E-3</c:v>
+                  <c:v>1.82E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,15 +1224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1260,14 +1259,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2257424" cy="266163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="pole tekstowe 2">
@@ -1281,7 +1280,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8686801" y="2062162"/>
+              <a:off x="11715751" y="1081087"/>
               <a:ext cx="2257424" cy="266163"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1411,7 +1410,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="pole tekstowe 2">
@@ -1425,7 +1424,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8686801" y="2062162"/>
+              <a:off x="11715751" y="1081087"/>
               <a:ext cx="2257424" cy="266163"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1503,14 +1502,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2164268" cy="177741"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="pole tekstowe 3">
@@ -1524,7 +1523,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9591676" y="2547937"/>
+              <a:off x="12582526" y="1690687"/>
               <a:ext cx="2164268" cy="177741"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1635,7 +1634,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="pole tekstowe 3">
@@ -1649,7 +1648,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9591676" y="2547937"/>
+              <a:off x="12582526" y="1690687"/>
               <a:ext cx="2164268" cy="177741"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1677,11 +1676,12 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑦=1,793∗〖10〗^(−5)−3,978∗〖10〗^(−6)</a:t>
+                <a:t>𝑦=1,793∗10^(−5)−3,978∗10^(−6)</a:t>
               </a:r>
               <a:endParaRPr lang="pl-PL" sz="1100"/>
             </a:p>
@@ -1698,12 +1698,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.02598</cdr:x>
-      <cdr:y>0.46423</cdr:y>
+      <cdr:x>0.00994</cdr:x>
+      <cdr:y>0.3726</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.10435</cdr:x>
-      <cdr:y>0.57983</cdr:y>
+      <cdr:x>0.08831</cdr:x>
+      <cdr:y>0.4882</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
@@ -1726,8 +1726,8 @@
       </cdr:blipFill>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
-          <a:off x="163275" y="1361517"/>
-          <a:ext cx="346289" cy="404556"/>
+          <a:off x="147520" y="2199406"/>
+          <a:ext cx="696990" cy="791263"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2042,26 +2042,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>15</v>
       </c>
@@ -2072,12 +2072,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2141,22 +2141,22 @@
         <v>0.875</v>
       </c>
       <c r="J4" s="1">
-        <f>H4/$H$2</f>
+        <f>H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="7">
-        <f>SQRT(((1/$H$2^2)*G4^2)+((I4^2)/($H$2^4))*$F$17^2)</f>
-        <v>4.5714333446274175E-3</v>
+      <c r="K4" s="6">
+        <f>SQRT(((1/$H$2^2)*$F$19^2)+((H4^2)/($H$2^4))*$F$17^2)</f>
+        <v>2.2857142857142858E-5</v>
       </c>
       <c r="M4">
         <f t="array" ref="M4:N5">LINEST(J4:J14,C16:C26,TRUE,TRUE)</f>
-        <v>1.7935028621430597E-5</v>
+        <v>1.5693150043751773E-5</v>
       </c>
       <c r="N4">
-        <v>-3.978419384311426E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-3.4811169612725384E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2184,22 +2184,22 @@
         <f t="shared" ref="I5:I14" si="1">$H$2+H5</f>
         <v>0.87514999999999998</v>
       </c>
-      <c r="J5" s="6">
-        <f>H5/$H$2</f>
-        <v>1.7142857142857143E-4</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" ref="K5:K14" si="2">SQRT(((1/$H$2^2)*G5^2)+((I5^2)/($H$2^4))*$F$17^2)</f>
-        <v>4.5722170172786836E-3</v>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J14" si="2">H5</f>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" ref="K5:K14" si="3">SQRT(((1/$H$2^2)*$F$19^2)+((H5^2)/($H$2^4))*$F$17^2)</f>
+        <v>2.2870573313724758E-5</v>
       </c>
       <c r="M5">
-        <v>1.4184087260790826E-7</v>
+        <v>1.2411076353191994E-7</v>
       </c>
       <c r="N5">
-        <v>8.05763188310071E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7.0504278977131341E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" ref="G6:G14" si="3">0.01/1000/1.73</f>
+        <f t="shared" ref="G6:G14" si="4">0.01/1000/1.73</f>
         <v>5.7803468208092489E-6</v>
       </c>
       <c r="H6" s="1">
@@ -2227,16 +2227,16 @@
         <f t="shared" si="1"/>
         <v>0.87524000000000002</v>
       </c>
-      <c r="J6" s="6">
-        <f>H6/$H$2</f>
-        <v>2.7428571428571427E-4</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>4.5726872208695785E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2891509091905447E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7803468208092489E-6</v>
       </c>
       <c r="H7" s="1">
@@ -2264,16 +2264,16 @@
         <f t="shared" si="1"/>
         <v>0.87534999999999996</v>
       </c>
-      <c r="J7" s="6">
-        <f>H7/$H$2</f>
-        <v>4.0000000000000007E-4</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>4.5732619141474751E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2930169058714428E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7803468208092489E-6</v>
       </c>
       <c r="H8" s="1">
@@ -2301,16 +2301,16 @@
         <f t="shared" si="1"/>
         <v>0.87544</v>
       </c>
-      <c r="J8" s="6">
-        <f t="shared" ref="J5:J14" si="4">H8/$H$2</f>
-        <v>5.0285714285714278E-4</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>4.5737321177385937E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.3999999999999996E-4</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2972447593544554E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>56</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7803468208092489E-6</v>
       </c>
       <c r="H9" s="1">
@@ -2338,16 +2338,16 @@
         <f t="shared" si="1"/>
         <v>0.87556</v>
       </c>
-      <c r="J9" s="6">
-        <f t="shared" si="4"/>
-        <v>6.4000000000000005E-4</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>4.5743590558602418E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.6000000000000006E-4</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3043627832298228E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>69</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7803468208092489E-6</v>
       </c>
       <c r="H10" s="1">
@@ -2375,16 +2375,16 @@
         <f t="shared" si="1"/>
         <v>0.87568999999999997</v>
       </c>
-      <c r="J10" s="6">
-        <f>H10/$H$2</f>
-        <v>7.8857142857142863E-4</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>4.5750382388255626E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.9000000000000008E-4</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3139668729002227E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>82</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7803468208092489E-6</v>
       </c>
       <c r="H11" s="1">
@@ -2412,16 +2412,16 @@
         <f t="shared" si="1"/>
         <v>0.87582000000000004</v>
       </c>
-      <c r="J11" s="6">
-        <f t="shared" si="4"/>
-        <v>9.3714285714285709E-4</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>4.5757174217910951E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3255157170551916E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>114</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7803468208092489E-6</v>
       </c>
       <c r="H12" s="1">
@@ -2449,16 +2449,16 @@
         <f t="shared" si="1"/>
         <v>0.87614000000000003</v>
       </c>
-      <c r="J12" s="6">
-        <f t="shared" si="4"/>
-        <v>1.3028571428571427E-3</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>4.5773892567840665E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.14E-3</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3620371360127627E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>149</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7803468208092489E-6</v>
       </c>
       <c r="H13" s="1">
@@ -2486,16 +2486,16 @@
         <f t="shared" si="1"/>
         <v>0.87648999999999999</v>
       </c>
-      <c r="J13" s="6">
-        <f t="shared" si="4"/>
-        <v>1.7028571428571429E-3</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>4.5792178263090863E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.49E-3</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4146371590253348E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>182</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7803468208092489E-6</v>
       </c>
       <c r="H14" s="1">
@@ -2523,21 +2523,21 @@
         <f t="shared" si="1"/>
         <v>0.87682000000000004</v>
       </c>
-      <c r="J14" s="6">
-        <f t="shared" si="4"/>
-        <v>2.0799999999999998E-3</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>4.5809419061483541E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.82E-3</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4756047952047631E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>C5-$C$4</f>
         <v>10</v>
@@ -2549,7 +2549,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" ref="C18:C26" si="5">C6-$C$4</f>
         <v>15.5</v>
@@ -2561,55 +2561,62 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="5"/>
         <v>22.299999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <f>0.02/1000</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="5"/>
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="5"/>
         <v>44.5</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="5"/>
         <v>52.7</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="5"/>
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="5"/>
         <v>117.69999999999999</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2626,7 +2633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F31" s="1">
         <v>1</v>
       </c>
@@ -2644,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F32" s="1">
         <v>2</v>
       </c>
@@ -2662,7 +2669,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F33" s="1">
         <v>3</v>
       </c>
@@ -2680,7 +2687,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F34" s="1">
         <v>4</v>
       </c>
@@ -2698,7 +2705,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F35" s="1">
         <v>5</v>
       </c>
@@ -2716,7 +2723,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F36" s="1">
         <v>6</v>
       </c>
@@ -2734,7 +2741,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F37" s="1">
         <v>7</v>
       </c>
@@ -2752,7 +2759,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F38" s="1">
         <v>8</v>
       </c>
@@ -2770,7 +2777,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F39" s="1">
         <v>9</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F40" s="1">
         <v>10</v>
       </c>
@@ -2806,7 +2813,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F41" s="1">
         <v>11</v>
       </c>
@@ -2824,7 +2831,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>8</v>
       </c>
@@ -2841,7 +2848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F43" s="1">
         <v>1</v>
       </c>
@@ -2858,7 +2865,7 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F44" s="1">
         <v>2</v>
       </c>
@@ -2875,7 +2882,7 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F45" s="1">
         <v>3</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F46" s="1">
         <v>4</v>
       </c>
@@ -2909,7 +2916,7 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F47" s="1">
         <v>5</v>
       </c>
@@ -2926,7 +2933,7 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F48" s="1">
         <v>6</v>
       </c>
@@ -2943,7 +2950,7 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49" s="1">
         <v>7</v>
       </c>
@@ -2960,7 +2967,7 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50" s="1">
         <v>8</v>
       </c>
@@ -2977,7 +2984,7 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51" s="1">
         <v>9</v>
       </c>
@@ -2994,7 +3001,7 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52" s="1">
         <v>10</v>
       </c>
@@ -3011,7 +3018,7 @@
         <v>1.1560693641618498E-2</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53" s="1">
         <v>11</v>
       </c>
